--- a/用例数据/股转/托管登记/测试结果.xlsx
+++ b/用例数据/股转/托管登记/测试结果.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="317">
   <si>
     <t>EXCHID</t>
   </si>
@@ -896,9 +896,6 @@
   </si>
   <si>
     <t>AUDITINGERRORMSG</t>
-  </si>
-  <si>
-    <t>DATASTATUS</t>
   </si>
   <si>
     <t>BUSINESSDATE</t>
@@ -932,31 +929,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100085</t>
-  </si>
-  <si>
-    <t>20211227000000</t>
-  </si>
-  <si>
-    <t>20211226161835</t>
-  </si>
-  <si>
     <t>20211225000000</t>
   </si>
   <si>
-    <t>1009076.860</t>
-  </si>
-  <si>
-    <t>000006864269</t>
-  </si>
-  <si>
     <t>1.0000000000</t>
-  </si>
-  <si>
-    <t>100086</t>
-  </si>
-  <si>
-    <t>000006864270</t>
   </si>
   <si>
     <t>20211226163254</t>
@@ -966,19 +942,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>005_003_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GZ11721600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>810007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANQ001</t>
+    <t>30052752</t>
+  </si>
+  <si>
+    <t>20221007203502</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>999286662.010</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>000006907696</t>
+  </si>
+  <si>
+    <t>30052753</t>
+  </si>
+  <si>
+    <t>000006907697</t>
+  </si>
+  <si>
+    <t>812480.0000</t>
+  </si>
+  <si>
+    <t>98.3500</t>
+  </si>
+  <si>
+    <t>DATASTATUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1305,148 +1302,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EH19"/>
+  <dimension ref="A1:EI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.375" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="19" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="18.75" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="18" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="12.875" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="14.25" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="15" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="17.875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="11.375" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="19" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="23" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.5" bestFit="1" customWidth="1"/>
     <col min="121" max="121" width="23" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -1703,7 +1700,7 @@
         <v>183</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="CI1" s="1" t="s">
         <v>184</v>
@@ -1862,21 +1859,21 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
@@ -1894,7 +1891,7 @@
         <v>89</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>312</v>
+        <v>91</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>92</v>
@@ -1924,7 +1921,7 @@
         <v>94</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>96</v>
@@ -1933,7 +1930,7 @@
         <v>96</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>97</v>
@@ -2035,7 +2032,7 @@
         <v>93</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="BP2" s="1" t="s">
         <v>243</v>
@@ -2065,7 +2062,7 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>96</v>
@@ -2083,13 +2080,13 @@
         <v>93</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>243</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>102</v>
@@ -2122,7 +2119,7 @@
         <v>243</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>96</v>
@@ -2178,10 +2175,13 @@
       <c r="EG2" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="EI2" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="3" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>233</v>
@@ -2190,10 +2190,10 @@
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>87</v>
@@ -2241,7 +2241,7 @@
         <v>94</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>96</v>
@@ -2250,7 +2250,7 @@
         <v>96</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>97</v>
@@ -2352,7 +2352,7 @@
         <v>93</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>243</v>
@@ -2382,7 +2382,7 @@
         <v>86</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>96</v>
@@ -2400,13 +2400,13 @@
         <v>93</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>243</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>102</v>
@@ -2439,7 +2439,7 @@
         <v>243</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>96</v>
@@ -2495,23 +2495,22 @@
       <c r="EG3" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="EI3" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:138" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2523,99 +2522,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH14"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="19" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.75" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="25" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.125" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="30" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2875,7 +2874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>90</v>
@@ -2895,7 +2894,7 @@
         <v>89</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>315</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>92</v>
@@ -2904,13 +2903,13 @@
         <v>93</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>96</v>
@@ -2949,13 +2948,13 @@
         <v>100</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>316</v>
+        <v>101</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>95</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>93</v>
@@ -2999,6 +2998,9 @@
       <c r="AO2" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="AP2" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="AQ2" s="1" t="s">
         <v>93</v>
       </c>
@@ -3075,7 +3077,7 @@
         <v>94</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>95</v>
+        <v>314</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>96</v>
@@ -3132,18 +3134,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3156,27 +3158,27 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3220,7 +3222,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -3264,21 +3266,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3293,77 +3295,77 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.25" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.5" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="14" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.5" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6.25" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="13" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>234</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>234</v>
       </c>
@@ -3849,23 +3851,23 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3877,42 +3879,42 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>112</v>
       </c>
@@ -3944,10 +3946,10 @@
         <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>232</v>
@@ -3965,7 +3967,7 @@
         <v>113</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>107</v>
@@ -3974,33 +3976,33 @@
         <v>279</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>272</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>87</v>
@@ -4015,22 +4017,22 @@
         <v>91</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>287</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>93</v>
@@ -4048,9 +4050,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>87</v>
@@ -4062,25 +4064,25 @@
         <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>287</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>93</v>
@@ -4098,24 +4100,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
